--- a/ASW/tabulka.xlsx
+++ b/ASW/tabulka.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Downloads\GitHub\SKOLA\ASW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC5BD65-33DB-4C7D-9936-255200263CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B86BA-4F29-4F96-AA68-DCAAD544C485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACEC2712-BEDD-4FA9-A6C5-840C7A5057D8}"/>
   </bookViews>
@@ -102,10 +102,28 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -121,12 +139,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749961851863155"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,25 +204,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Nadpis 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Nadpis 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -536,70 +621,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91EEF0B-75C8-49D2-88C6-6388B00CD6CC}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="9" width="11.33203125" customWidth="1"/>
+    <col min="3" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.8</v>
       </c>
-      <c r="D3" s="5">
-        <f>C3*0.05</f>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D8" si="0">C3*0.05</f>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E3" s="5">
-        <f>C3-D3</f>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E8" si="1">C3-D3</f>
         <v>0.76</v>
       </c>
-      <c r="F3" s="5">
-        <f>E3*0.2</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F8" si="2">E3*0.2</f>
         <v>0.15200000000000002</v>
       </c>
-      <c r="G3" s="5">
-        <f>E3+F3</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G8" si="3">E3+F3</f>
         <v>0.91200000000000003</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>50</v>
       </c>
-      <c r="I3" s="5">
-        <f>G3*H3</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I8" si="4">G3*H3</f>
         <v>45.6</v>
       </c>
     </row>
@@ -607,30 +694,30 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.2</v>
       </c>
-      <c r="D4" s="5">
-        <f>C4*0.05</f>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E4" s="5">
-        <f>C4-D4</f>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="F4" s="5">
-        <f>E4*0.2</f>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
         <v>0.22799999999999998</v>
       </c>
-      <c r="G4" s="5">
-        <f>E4+F4</f>
+      <c r="G4" s="4">
+        <f t="shared" si="3"/>
         <v>1.3679999999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>120</v>
       </c>
-      <c r="I4" s="5">
-        <f>G4*H4</f>
+      <c r="I4" s="4">
+        <f t="shared" si="4"/>
         <v>164.16</v>
       </c>
     </row>
@@ -638,30 +725,30 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.9</v>
       </c>
-      <c r="D5" s="5">
-        <f>C5*0.05</f>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="E5" s="5">
-        <f>C5-D5</f>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F5" s="5">
-        <f>E5*0.2</f>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="G5" s="5">
-        <f>E5+F5</f>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
         <v>1.026</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="5">
-        <f>G5*H5</f>
+      <c r="I5" s="4">
+        <f t="shared" si="4"/>
         <v>20.52</v>
       </c>
     </row>
@@ -669,30 +756,30 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.7</v>
       </c>
-      <c r="D6" s="5">
-        <f>C6*0.05</f>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="E6" s="5">
-        <f>C6-D6</f>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
         <v>2.5650000000000004</v>
       </c>
-      <c r="F6" s="5">
-        <f>E6*0.2</f>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
         <v>0.51300000000000012</v>
       </c>
-      <c r="G6" s="5">
-        <f>E6+F6</f>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
         <v>3.0780000000000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>50</v>
       </c>
-      <c r="I6" s="5">
-        <f>G6*H6</f>
+      <c r="I6" s="4">
+        <f t="shared" si="4"/>
         <v>153.9</v>
       </c>
     </row>
@@ -700,30 +787,30 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>23</v>
       </c>
-      <c r="D7" s="5">
-        <f>C7*0.05</f>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="E7" s="5">
-        <f>C7-D7</f>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
         <v>21.85</v>
       </c>
-      <c r="F7" s="5">
-        <f>E7*0.2</f>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
         <v>4.37</v>
       </c>
-      <c r="G7" s="5">
-        <f>E7+F7</f>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
         <v>26.220000000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>15</v>
       </c>
-      <c r="I7" s="5">
-        <f>G7*H7</f>
+      <c r="I7" s="4">
+        <f t="shared" si="4"/>
         <v>393.3</v>
       </c>
     </row>
@@ -731,30 +818,30 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>19.5</v>
       </c>
-      <c r="D8" s="5">
-        <f>C8*0.05</f>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
         <v>0.97500000000000009</v>
       </c>
-      <c r="E8" s="5">
-        <f>C8-D8</f>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
         <v>18.524999999999999</v>
       </c>
-      <c r="F8" s="5">
-        <f>E8*0.2</f>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
         <v>3.7050000000000001</v>
       </c>
-      <c r="G8" s="5">
-        <f>E8+F8</f>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
         <v>22.229999999999997</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>12</v>
       </c>
-      <c r="I8" s="5">
-        <f>G8*H8</f>
+      <c r="I8" s="4">
+        <f t="shared" si="4"/>
         <v>266.76</v>
       </c>
     </row>
@@ -762,29 +849,29 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>SUM(C3, C4, C5, C6,C7,C8)</f>
         <v>48.1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>SUM(D3, D4, D5, D6,D7,D8)</f>
         <v>2.4050000000000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>SUM(E3, E4, E5, E6,E7,E8)</f>
         <v>45.695</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>+SUM(G3:G8)</f>
         <v>54.833999999999996</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>SUM(I3:I8)</f>
         <v>1044.24</v>
       </c>
@@ -793,27 +880,27 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>8.0166666666666675</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>7.6158333333333337</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f>AVERAGE(I3:I8)</f>
         <v>174.04</v>
       </c>
@@ -827,8 +914,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5">
+      <c r="H11" s="7"/>
+      <c r="I11" s="4">
         <f>MAX(I3:I8)</f>
         <v>393.3</v>
       </c>
@@ -842,13 +929,21 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5">
+      <c r="H12" s="7"/>
+      <c r="I12" s="4">
         <f>MIN(I3:I8)</f>
         <v>20.52</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ASW/tabulka.xlsx
+++ b/ASW/tabulka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Downloads\GitHub\SKOLA\ASW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B86BA-4F29-4F96-AA68-DCAAD544C485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8ED82-0A22-4A35-B9E3-E03C59549BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACEC2712-BEDD-4FA9-A6C5-840C7A5057D8}"/>
   </bookViews>
@@ -99,10 +99,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +130,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +150,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,12 +238,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,13 +268,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Čiarka" xfId="3" builtinId="3"/>
     <cellStyle name="Nadpis 1" xfId="1" builtinId="16"/>
     <cellStyle name="Nadpis 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -276,16 +296,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -619,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91EEF0B-75C8-49D2-88C6-6388B00CD6CC}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +643,27 @@
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,8 +688,17 @@
       <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,8 +728,17 @@
         <f t="shared" ref="I3:I8" si="4">G3*H3</f>
         <v>45.6</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -720,8 +768,17 @@
         <f t="shared" si="4"/>
         <v>164.16</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,8 +808,17 @@
         <f t="shared" si="4"/>
         <v>20.52</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -782,8 +848,17 @@
         <f t="shared" si="4"/>
         <v>153.9</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +888,17 @@
         <f t="shared" si="4"/>
         <v>393.3</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,8 +928,17 @@
         <f t="shared" si="4"/>
         <v>266.76</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,8 +968,17 @@
         <f>SUM(I3:I8)</f>
         <v>1044.24</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,8 +1006,17 @@
         <f>AVERAGE(I3:I8)</f>
         <v>174.04</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -919,8 +1030,17 @@
         <f>MAX(I3:I8)</f>
         <v>393.3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -934,14 +1054,231 @@
         <f>MIN(I3:I8)</f>
         <v>20.52</v>
       </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>16</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
